--- a/models/ctmc/buffer/properties.xlsx
+++ b/models/ctmc/buffer/properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>property</t>
   </si>
@@ -30,22 +30,16 @@
     <t>enabled</t>
   </si>
   <si>
-    <t>Prop1</t>
-  </si>
-  <si>
-    <t>Prop2</t>
-  </si>
-  <si>
-    <t>Prop3</t>
-  </si>
-  <si>
     <t>R{"consume"}=? [ C&lt;=25 ]</t>
   </si>
   <si>
-    <t>R{"lost"}=? [ C&lt;=25 ]</t>
-  </si>
-  <si>
-    <t>P=? [ F[20,25] ((buffer_s&gt;=10)&amp;(buffer_f&gt;=15)) ]</t>
+    <t>Exp. Number requests until time t=25</t>
+  </si>
+  <si>
+    <t>Prop. Utilization above 75% between time [0,25]</t>
+  </si>
+  <si>
+    <t>P=? [ F[20,25] ((buffer_s&gt;=max_slow_buffer*0.75)&amp;(buffer_f&gt;=max_fast_buffer*0.75)) ]</t>
   </si>
 </sst>
 </file>
@@ -364,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -389,10 +383,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -400,24 +394,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/models/ctmc/buffer/properties.xlsx
+++ b/models/ctmc/buffer/properties.xlsx
@@ -33,13 +33,13 @@
     <t>R{"consume"}=? [ C&lt;=25 ]</t>
   </si>
   <si>
-    <t>Exp. Number requests until time t=25</t>
-  </si>
-  <si>
-    <t>Prop. Utilization above 75% between time [0,25]</t>
-  </si>
-  <si>
     <t>P=? [ F[20,25] ((buffer_s&gt;=max_slow_buffer*0.75)&amp;(buffer_f&gt;=max_fast_buffer*0.75)) ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr[util &gt; 75%] </t>
+  </si>
+  <si>
+    <t>E[#requests] until time t=25</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +383,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
